--- a/wanted_clone/src/main/webapp/WEB-INF/xlsx/jobDB.xlsx
+++ b/wanted_clone/src/main/webapp/WEB-INF/xlsx/jobDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="281">
   <si>
     <t>IMG</t>
   </si>
@@ -1220,148 +1220,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스트리미는 2015년 창사 이래 초지일관 블록체인 금융("가치의 인터넷)의 대중화를 위한 인프라 구축에 전념해 왔습니다.
-"가치의 인터넷"을 통해 전 세계와 대한민국을 연결하는 세계적인 "크립토 퍼스트(Crypto-first) 종합 금융사"로 성장해 나아갈 것입니다.
-스트리미와 함께 블록체인 금융의 건강한 발전을 함께 이루실 분을 모십니다!
-##문화
-스트리미는 수평조직입니다.
-- 구성원들이 일하기 좋은 환경을 만들어 조직과 개인 모두가 성장할 수 있고, 기여한 부분에 있어서 정당한 보상을 받아 계속 성장해 나갈 수 있는 환경을 만들기 위해 노력하고 있습니다. 
-- 오늘보다 내일 더 발전한 개인과 조직이 되기 위해 노력하고 있으며, 스터디와 연구, 끊임 없는 노력을 통해 개발 기술을 탐구하고 이를 실제 서비스에 적용하려 노력합니다.
-- 구성원의 개개인의 인격을 존중하며, 개인의 다름과 자유를 인정합니다.
-- 직책과 역할이 다를수는 있어도, 사람간의 관계에 있어서는 계급이 존재하지 않습니다.
-- 의사선택은 민주적인 절차로 진행합니다. 토론과 토의를 통해 합리적인 의사결정을 하는 것이 원칙입니다.
-- 기술 선택에 있어서는 논리가 뒷받침되어야 하고, 과학적인 절차로 채택하는 것을 원칙으로 합니다. 기술에 있어서 만큼은 민주적인 방법보다 과학적인 절차가 우선입니다.
-- 모든 구성원은 경어를 사용합니다.
-- 자유에는 책임이 따릅니다. 문화와 성과를 저해하는 요인이 된다고 판단될때는 경우에 따라 제한이 있을 수 있습니다.
-##팀
-- 글로벌한 다국적 인재들로 이루어진 좋은 동료들과 함께 일하실 수 있습니다.
-- 다양한 경험을 가진 동료들과 일하실 수 있습니다.
-- 비전공자로 일하시다가 전향하신분, 어릴때부터 코딩만 하신 분, 음악이 꿈이셨던 분, 자전거 타고 비행 하셨던 분, 7개국어 하시는 분 등등
-스트리미와 관련되어 궁금한 점은 회사 홈페이지에서 보다 자세히 알아 보실 수 있습니다.
-주요업무
-- 고팍스(GOPAX) 거래소의 백엔드 서버 개발 및 유지보수
-- AWS 상 인프라 구성, 제품 개발 및 배포
-- 품질 개선을 위한 QA/Testing 환경과 CI/CD 환경 구축 및 운용
-- 성능 향상을 위한 백엔드 아키텍쳐 개선 및 프로파일링 수행
-- 서비스 모니터링과 데이터 분석을 위한 로그 수집 및 가공
-- 블록체인 기술을 이용한 서비스 연구/개발
-자격요건
-- Modern Javascript, Java, Python 중 적어도 하나 이상의 경험을 가지신 분
-- 비즈니스 로직에 대한 이해를 바탕으로 API와 데이터 모델을 설계할 수 있는 분
-- 자신이 경험한 프로젝트에 대해 구체적이고 명료한 설명을 할 수 있는 분
-- 주도적으로 문제를 찾고 해결할 수 있는 분
-- 새로운 기술을 익히고 적용하는데 흥미가 있는 분
-- 논리적으로 자신의 의견을 피력하고 구성원들의 의견을 비판적으로 수용할 수 있는 분
-- 조직과 개인의 성장에 관심이 있는 분
-우대사항
-- High-availability, High-throughput, Fault-tolerant 서비스 구축을 경험하신 분
-- Modern javascript, Java, Python 중 하나 이상에 탁월한 능력을 지닌 분
-- AWS 상에서 제품을 구축하고 서비스를 운용해보신 분
-- Docker 등 Containerization 기술과 Microservice Architecture에 익숙하신 분
-- OS/Database/Network에 깊은 이해를 가진 분
-- 성능 개선, 서비스 모니터링, 자동화에 대해 깊은 이해를 가진 분
-- 블록체인 기술에 대한 관심과 이해를 가진 분
-## 채용프로세스
-서류 - 온라인 코딩테스트 - 1차인터뷰 - 최종인터뷰 - 최종합격
-혜택 및 복지
-## 개발 프로세스
-- Scrum
-- Code Review 된 소스만 배포 가능
-## 장점
-- 코드 리뷰를 제대로 해드립니다.
-- 적절한 난이도가 있는 업무를 할당해드립니다.
-- 원하시면 매우 난이도가 높은 테스트도 드립니다.
-- 계속 발전하고 싶은 분들에게 좋은 조직입니다.
-- 유연근무/재택근무 가능합니다.
-## 복지
-- 스트리미 최고의 복지는 동료라는 것을 자부합니다. 
-- 점심 1.2만원, 야근이 발생하는 경우 저녁 1.5만원 + 택시비 
-- 개인 법인카드 제공(항공사 마일리지 적립)
-- 연 100만원의 복지카드 (온라인몰, 운동, 문화, 식사, 여행 등)
-- 연 200만원의 교육비 (업무관련, 외국어, 대학원 등, 50% 본인부담+ 50% 회사지원)
-- 건강검진 대상자에게 약 70만원 상당의 건간검진 지원
-- 3년 이상 장기근속 시, 근속휴가 및 감사금
-- 1년 이상 근무 시, 가족사랑비 월 10만원 (지정한 가족 1인에게 직접 지급)
-- 명절 귀성비 및 선물 지급
-- 장비지원금 연 30만원
-- 월 5만원 동아리 지원 (1인 1개 동아리 활동 가능)
-## 소소한 복지
-- 스터디/업무용 도서 구매
-- 최신 네스프레소 캡슐 커피, 음료, 간식 무한 제공
-- 경조금/경조휴가 
-- 50만원 이내의 원하는 키보드 등 개인장비 구매 가능
-- 업무 효율을 위한 아이패드 프로 별도 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우아한형제들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고용형태: 정규직(3년이상)
-주요업무
-배민외식업광장을 이용하는 사장님을 위한 서비스의 백엔드를 개발합니다. 
-배민외식업광장에 방문하시는 사장님들께 콘텐츠 제공할 수 있는 CMS 환경을 제공합니다. 
-또한 개발의 효율화, 퍼포먼스 향상, 그리고 내외부 검색 최적화 및 개선도 함께 하고 있습니다.
-- 배민외식업광장 서비스 Back-end 개발 (PC/모바일 웹)
-- 배민외식업광장 백오피스 및 CMS Back-end 개발
-- 배민외식업광장 통합검색 개발
-자격요건
-- 웹 어플리케이션 개발, 운영 경력 3년 이상이신 분(또는 그에 준하는 역량을 갖추신 분)
-- JAVA에 익숙하시고, 그 외 언어(1개 이상)를 습득하신 분
-- Spring 프레임웍(Spring Boot)을 이용한 Web Application 개발 경험이 있으신 분
-- MVC framework 기반의 웹 서비스나 API 개발 경험이 있으신 분
-- MySQL(Maria DB) 등의 RDBMS 경험이 있으신 분
-- 기본적인 Linux/Unix 명령 사용 능력을 보유하신 분
-우대사항
-- 기획, 프론트엔드 개발 구성원들과 과제와 이슈에 대해 원활히 소통하며 서비스를 만들어 갈 수 있는 분이라면 더 좋습니다.
-- AWS를 활용한 개발, 운영 경험이 있는 분이라면 더 좋습니다.
-- 빌드/테스트/배포 자동화 경험이 있는 분이라면 더 좋습니다.
-- Zuul / Spring Cloud Gateway 등을 사용하여 api gateway 를 구축해 본 경험이 있는 분이라면 더 좋습니다.
-- Microservices 아키텍처 기반의 시스템 개발 경험이 있는 분이라면 더 좋습니다.
-- 대용량 트래픽 경험이 있는 분이라면 더 좋습니다.
-- JPA, Hibernate 등 ORM 사용과 도메인 모델링 경험이 있는 분이라면 더 좋습니다.
-- B2B서비스 시스템 관련 업무 경험이 있는 분이라면 더 좋습니다.
-- 동료에게 지식을 공유하고, 피드백을 주는 문화를 좋아하는 분이라면 더 좋습니다.
-- JIRA, Confluence, Slack을 활용한 커뮤니케이션에 익숙하신 분이면 더 좋습니다. 
-[개발환경] 
-- 주요 기술 : Spring Boot 2.2, Java 8, AWS Aurora(MySQL 5.7.x), ElasticSearch, Redis, Kafka
-- 업무 도구 : Gitlab, IntelliJ, Jira, Confluence, Slack, Figma
-- 코드 리뷰 : Gitlab MR 
-[경력기술서는 이렇게 작성하시는 걸 추천해요!]
-- 이력서에 프로젝트 이름만 있으면 어떤 일을 하셨는지 판단하기 어려워요. 경험하신 업무와 채용 직무 사이의 연관성을 자세히 알려주시면 좋아요.
-- 팀에서 백엔드 개발자는 몇 명이었고, 그 구성원 사이에서 어떤 역할을 했는지, 역할 업무 비중등에 대해서도 자세히 알려주시면 좋아요.
-- 문제를 발견해서 적극적으로 개선해본 경험이 있다면, 어떤 기술 스택을 사용하여 어느 정도 개선했는지 구체적으로 적어주세요!
-- 서비스 초기 단계에 참여해본 경험이 있다면 기술해주세요.
-[꼭 읽어 주세요!]
-- 지원하실 때 경력기술서(PDF 형식)를 반드시 첨부해 주세요.
-- 경력기술서는 자신의 기술력을 보여 줄 수 있는 프로젝트 및 다른 사람들과 협력했던 경험 위주로 작성해 주세요.
-- 각 프로젝트에 대해 수행 기간, 주요 업무 내용, 본인의 기여, 결과/성과/성취 등을 명시해 주세요.
-- 코딩 테스트 절차는 개별적으로 안내해 드립니다.
-- 코딩 테스트 심사는 일주일 정도 소요됩니다.
-혜택 및 복지
-[우아한혜택 미리보기]
-- 정규직 입사 시, 기본 연봉의 20%를 사이닝 보너스로 지급! (단, 근속조건 2년)
-- 일한 만큼 드립니다. 주 32시간 근무 초과시 분 단위로 지급되는 연장수당
-- 일을 더 잘하기 위한 근무제도 혁신은 계속된다, 지금은 주 1회 오프라인 출근! &amp; 매월 10만원의 재택근무 지원금 지급
-- 재택근무에 진심인 회사! 최고의 재택업무 환경 제공 (허먼밀러에어론의자, 모션데스크, 5K모니터 중 택1 지급)
-- 연 200만원 복지포인트 지급
-- 가족까지 챙겨드려요. 본인, 배우자, 자녀, 양가 부모님까지 단체상해보험 제공
-- 주택자금 대출 이자 지원! 집 걱정을 덜어드려요.
-- 최신형 장비 2년마다 지원! (맥북 프로, 윈도우 중 선택)
-- 엄마, 아빠를 위한 다양한 지원 - 산후조리원비, 우아한 어린이집, 육아기 근로시간 단축, 우아한 예비 엄마/아빠 제도
-[입사 후 생활 미리보기]
-- 일할 땐 일하고, 쉴 땐 푹~ 쉬는 주 32시간제! 월요일 오전은 쉬어요. (화~금요일은 7시간 근무)
-- 배경음악(BGM)이 흐르는 카페 같은 오피스 (업무몰입도 UP, 잡담 UP)
-- 좋아하는 일을 하고 싶은 공간에서, 영감을 주는 스마트오피스
-- 매주 대표와 직원들이 자유롭게 의견을 나누는 소통의 장, 우수타 (우아한수다타임, 정말 수다 많이 떨어요)
-- 관심과 애정으로 구성원을 챙깁니다, 피플실! 배민다운 문화를 구성원과 함께 가꿔가요~
-- 자기성장에 필요한 도서구입비 무제한 지원. 서점에선 살까 말까 망설이지 않아요.
-#주32시간 #재택근무 #단체보험 #도서비지원 #사이닝보너스
-※ 입사지원 안내사항
-- 채용 프로세스 상 서류전형 이후부터는 우아한형제들 내부 시스템을 통해서 면접전형이 진행됩니다.
-- 서류전형 합격 시 우아한형제들 채용 시스템에 지원서 등록 절차가 한 번 더 진행됨을 사전 안내드립니다.
-- 원활한 채용 진행을 위해서 번거로움을 드리는 점 양해 부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3047,29 +2906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나만의 세무비서 택스비는 소상공인 세무서비스 플랫폼으로
-자동으로 간편장부가 작성되며 부가가치세 원천세 신고 서비스를 제공하고 있습니다.
-택스비는 소상공인의 납세협력비용을 기존 월 10만원 → 월 1만원으로 줄여줌으로써
-소상공인의 경제적 자립을 돕는데 기여하고 있습니다.
-회사소개: https://youtu.be/S38pxogM99M
-주요업무
-• 세금신고 플랫폼 개발 및 유지보수
-자격요건
-• Winform, ASP.NET 개발 가능자
-• MS-SQL 기반 개발 가능하신 분
-우대사항
-• 컴퓨터공학 및 관련 전공자 우대
-• Winform, ASP.NET, MS-SQL 기반 개발에 익숙하신 분
-혜택 및 복지
-• 최신형 장비지원(MacBook Pro, LG gram, 듀얼 모니터 등등)
-• 중소기업 청년소득세 감면
-• 청년내일채움공제 지원
-• 식비, 커피 제공
-• 명절 선물 및 상여금, 경조사비 지원
-• 연 1회 건강검진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오토위니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4161,60 +3997,6 @@
   </si>
   <si>
     <r>
-      <t>Web Publisher (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리셔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>닫닫닫</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF333333"/>
@@ -8675,22 +8457,6 @@
         <charset val="129"/>
       </rPr>
       <t>층</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Winform, ASP.NET, MSSQL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발자</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8979,12 +8745,528 @@
     <t>송파구 올림픽로 300 롯데월드타워 35층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>POSITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풀스택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트리미는 2015년 창사 이래 초지일관 블록체인 금융("가치의 인터넷)의 대중화를 위한 인프라 구축에 전념해 왔습니다.
+"가치의 인터넷"을 통해 전 세계와 대한민국을 연결하는 세계적인 "크립토 퍼스트(Crypto-first) 종합 금융사"로 성장해 나아갈 것입니다.
+스트리미와 함께 블록체인 금융의 건강한 발전을 함께 이루실 분을 모십니다!
+##문화
+스트리미는 수평조직입니다.
+- 구성원들이 일하기 좋은 환경을 만들어 조직과 개인 모두가 성장할 수 있고, 기여한 부분에 있어서 정당한 보상을 받아 계속 성장해 나갈 수 있는 환경을 만들기 위해 노력하고 있습니다. 
+- 오늘보다 내일 더 발전한 개인과 조직이 되기 위해 노력하고 있으며, 스터디와 연구, 끊임 없는 노력을 통해 개발 기술을 탐구하고 이를 실제 서비스에 적용하려 노력합니다.
+- 구성원의 개개인의 인격을 존중하며, 개인의 다름과 자유를 인정합니다.
+- 직책과 역할이 다를수는 있어도, 사람간의 관계에 있어서는 계급이 존재하지 않습니다.
+- 의사선택은 민주적인 절차로 진행합니다. 토론과 토의를 통해 합리적인 의사결정을 하는 것이 원칙입니다.
+- 기술 선택에 있어서는 논리가 뒷받침되어야 하고, 과학적인 절차로 채택하는 것을 원칙으로 합니다. 기술에 있어서 만큼은 민주적인 방법보다 과학적인 절차가 우선입니다.
+- 모든 구성원은 경어를 사용합니다.
+- 자유에는 책임이 따릅니다. 문화와 성과를 저해하는 요인이 된다고 판단될때는 경우에 따라 제한이 있을 수 있습니다.
+##팀
+- 글로벌한 다국적 인재들로 이루어진 좋은 동료들과 함께 일하실 수 있습니다.
+- 다양한 경험을 가진 동료들과 일하실 수 있습니다.
+- 비전공자로 일하시다가 전향하신분, 어릴때부터 코딩만 하신 분, 음악이 꿈이셨던 분, 자전거 타고 비행 하셨던 분, 7개국어 하시는 분 등등
+스트리미와 관련되어 궁금한 점은 회사 홈페이지에서 보다 자세히 알아 보실 수 있습니다.
+주요업무
+- 고팍스(GOPAX) 거래소의 백엔드 서버 개발 및 유지보수
+- AWS 상 인프라 구성, 제품 개발 및 배포
+- 품질 개선을 위한 QA/Testing 환경과 CI/CD 환경 구축 및 운용
+- 성능 향상을 위한 백엔드 아키텍쳐 개선 및 프로파일링 수행
+- 서비스 모니터링과 데이터 분석을 위한 로그 수집 및 가공
+- 블록체인 기술을 이용한 서비스 연구/개발
+자격요건
+- Modern Javascript, Java, Python 중 적어도 하나 이상의 경험을 가지신 분
+- 비즈니스 로직에 대한 이해를 바탕으로 API와 데이터 모델을 설계할 수 있는 분
+- 자신이 경험한 프로젝트에 대해 구체적이고 명료한 설명을 할 수 있는 분
+- 주도적으로 문제를 찾고 해결할 수 있는 분
+- 새로운 기술을 익히고 적용하는데 흥미가 있는 분
+- 논리적으로 자신의 의견을 피력하고 구성원들의 의견을 비판적으로 수용할 수 있는 분
+- 조직과 개인의 성장에 관심이 있는 분
+우대사항
+- High-availability, High-throughput, Fault-tolerant 서비스 구축을 경험하신 분
+- Modern javascript, Java, Python 중 하나 이상에 탁월한 능력을 지닌 분
+- AWS 상에서 제품을 구축하고 서비스를 운용해보신 분
+- Docker 등 Containerization 기술과 Microservice Architecture에 익숙하신 분
+- OS/Database/Network에 깊은 이해를 가진 분
+- 성능 개선, 서비스 모니터링, 자동화에 대해 깊은 이해를 가진 분
+- 블록체인 기술에 대한 관심과 이해를 가진 분
+## 채용프로세스
+서류 - 온라인 코딩테스트 - 1차인터뷰 - 최종인터뷰 - 최종합격
+혜택 및 복지
+## 개발 프로세스
+- Scrum
+- Code Review 된 소스만 배포 가능
+## 장점
+- 코드 리뷰를 제대로 해드립니다.
+- 적절한 난이도가 있는 업무를 할당해드립니다.
+- 원하시면 매우 난이도가 높은 테스트도 드립니다.
+- 계속 발전하고 싶은 분들에게 좋은 조직입니다.
+- 유연근무/재택근무 가능합니다.
+## 복지
+- 스트리미 최고의 복지는 동료라는 것을 자부합니다. 
+- 점심 1.2만원, 야근이 발생하는 경우 저녁 1.5만원 + 택시비 
+- 개인 법인카드 제공(항공사 마일리지 적립)
+- 연 100만원의 복지카드 (온라인몰, 운동, 문화, 식사, 여행 등)
+- 연 200만원의 교육비 (업무관련, 외국어, 대학원 등, 50% 본인부담+ 50% 회사지원)
+- 건강검진 대상자에게 약 70만원 상당의 건간검진 지원
+- 3년 이상 장기근속 시, 근속휴가 및 감사금
+- 1년 이상 근무 시, 가족사랑비 월 10만원 (지정한 가족 1인에게 직접 지급)
+- 명절 귀성비 및 선물 지급
+- 장비지원금 연 30만원
+- 월 5만원 동아리 지원 (1인 1개 동아리 활동 가능)
+## 소소한 복지
+- 스터디/업무용 도서 구매
+- 최신 네스프레소 캡슐 커피, 음료, 간식 무한 제공
+- 경조금/경조휴가 
+- 50만원 이내의 원하는 키보드 등 개인장비 구매 가능
+- 업무 효율을 위한 아이패드 프로 별도 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Web Publisher (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리셔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프론트엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬  개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용형태: 정규직(3년이상)
+주요업무
+배민외식업광장을 이용하는 사장님을 위한 서비스의 백엔드를 개발합니다. 
+배민외식업광장에 방문하시는 사장님들께 콘텐츠 제공할 수 있는 CMS 환경을 제공합니다. 
+또한 개발의 효율화, 퍼포먼스 향상, 그리고 내외부 검색 최적화 및 개선도 함께 하고 있습니다.
+- 배민외식업광장 서비스 Back-end 개발 (PC/모바일 웹)
+- 배민외식업광장 백오피스 및 CMS Back-end 개발
+- 배민외식업광장 통합검색 개발
+자격요건
+- 웹 어플리케이션 개발, 운영 경력 3년 이상이신 분(또는 그에 준하는 역량을 갖추신 분)
+- JAVA에 익숙하시고, 그 외 언어(1개 이상)를 습득하신 분
+- Spring 프레임웍(Spring Boot)을 이용한 Web Application 개발 경험이 있으신 분
+- MVC framework 기반의 웹 서비스나 API 개발 경험이 있으신 분
+- MySQL(Maria DB) 등의 RDBMS 경험이 있으신 분
+- 기본적인 Linux/Unix 명령 사용 능력을 보유하신 분
+우대사항
+- 기획, 프론트엔드 개발 구성원들과 과제와 이슈에 대해 원활히 소통하며 서비스를 만들어 갈 수 있는 분이라면 더 좋습니다.
+- AWS를 활용한 개발, 운영 경험이 있는 분이라면 더 좋습니다.
+- 빌드/테스트/배포 자동화 경험이 있는 분이라면 더 좋습니다.
+- Zuul / Spring Cloud Gateway 등을 사용하여 api gateway 를 구축해 본 경험이 있는 분이라면 더 좋습니다.
+- Microservices 아키텍처 기반의 시스템 개발 경험이 있는 분이라면 더 좋습니다.
+- 대용량 트래픽 경험이 있는 분이라면 더 좋습니다.
+- JPA, Hibernate 등 ORM 사용과 도메인 모델링 경험이 있는 분이라면 더 좋습니다.
+- B2B서비스 시스템 관련 업무 경험이 있는 분이라면 더 좋습니다.
+- 동료에게 지식을 공유하고, 피드백을 주는 문화를 좋아하는 분이라면 더 좋습니다.
+- JIRA, Confluence, Slack을 활용한 커뮤니케이션에 익숙하신 분이면 더 좋습니다. 
+[개발환경] 
+- 주요 기술 : Spring Boot 2.2, Java 8, AWS Aurora(MySQL 5.7.x), ElasticSearch, Redis, Kafka
+- 업무 도구 : Gitlab, IntelliJ, Jira, Confluence, Slack, Figma
+- 코드 리뷰 : Gitlab MR 
+[경력기술서는 이렇게 작성하시는 걸 추천해요!]
+- 이력서에 프로젝트 이름만 있으면 어떤 일을 하셨는지 판단하기 어려워요. 경험하신 업무와 채용 직무 사이의 연관성을 자세히 알려주시면 좋아요.
+- 팀에서 백엔드 개발자는 몇 명이었고, 그 구성원 사이에서 어떤 역할을 했는지, 역할 업무 비중등에 대해서도 자세히 알려주시면 좋아요.
+- 문제를 발견해서 적극적으로 개선해본 경험이 있다면, 어떤 기술 스택을 사용하여 어느 정도 개선했는지 구체적으로 적어주세요!
+- 서비스 초기 단계에 참여해본 경험이 있다면 기술해주세요.
+[꼭 읽어 주세요!]
+- 지원하실 때 경력기술서(PDF 형식)를 반드시 첨부해 주세요.
+- 경력기술서는 자신의 기술력을 보여 줄 수 있는 프로젝트 및 다른 사람들과 협력했던 경험 위주로 작성해 주세요.
+- 각 프로젝트에 대해 수행 기간, 주요 업무 내용, 본인의 기여, 결과/성과/성취 등을 명시해 주세요.
+- 코딩 테스트 절차는 개별적으로 안내해 드립니다.
+- 코딩 테스트 심사는 일주일 정도 소요됩니다.
+혜택 및 복지
+[우아한혜택 미리보기]
+- 정규직 입사 시, 기본 연봉의 20%를 사이닝 보너스로 지급! (단, 근속조건 2년)
+- 일한 만큼 드립니다. 주 32시간 근무 초과시 분 단위로 지급되는 연장수당
+- 일을 더 잘하기 위한 근무제도 혁신은 계속된다, 지금은 주 1회 오프라인 출근! &amp; 매월 10만원의 재택근무 지원금 지급
+- 재택근무에 진심인 회사! 최고의 재택업무 환경 제공 (허먼밀러에어론의자, 모션데스크, 5K모니터 중 택1 지급)
+- 연 200만원 복지포인트 지급
+- 가족까지 챙겨드려요. 본인, 배우자, 자녀, 양가 부모님까지 단체상해보험 제공
+- 주택자금 대출 이자 지원! 집 걱정을 덜어드려요.
+- 최신형 장비 2년마다 지원! (맥북 프로, 윈도우 중 선택)
+- 엄마, 아빠를 위한 다양한 지원 - 산후조리원비, 우아한 어린이집, 육아기 근로시간 단축, 우아한 예비 엄마/아빠 제도
+[입사 후 생활 미리보기]
+- 일할 땐 일하고, 쉴 땐 푹~ 쉬는 주 32시간제! 월요일 오전은 쉬어요. (화~금요일은 7시간 근무)
+- 배경음악(BGM)이 흐르는 카페 같은 오피스 (업무몰입도 UP, 잡담 UP)
+- 좋아하는 일을 하고 싶은 공간에서, 영감을 주는 스마트오피스
+- 매주 대표와 직원들이 자유롭게 의견을 나누는 소통의 장, 우수타 (우아한수다타임, 정말 수다 많이 떨어요)
+- 관심과 애정으로 구성원을 챙깁니다, 피플실! 배민다운 문화를 구성원과 함께 가꿔가요~
+- 자기성장에 필요한 도서구입비 무제한 지원. 서점에선 살까 말까 망설이지 않아요.
+#주32시간 #재택근무 #단체보험 #도서비지원 #사이닝보너스
+※ 입사지원 안내사항
+- 채용 프로세스 상 서류전형 이후부터는 우아한형제들 내부 시스템을 통해서 면접전형이 진행됩니다.
+- 서류전형 합격 시 우아한형제들 채용 시스템에 지원서 등록 절차가 한 번 더 진행됨을 사전 안내드립니다.
+- 원활한 채용 진행을 위해서 번거로움을 드리는 점 양해 부탁드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이썬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록체인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔지니어</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 세무비서 택스비는 소상공인 세무서비스 플랫폼으로
+자동으로 간편장부가 작성되며 부가가치세 원천세 신고 서비스를 제공하고 있습니다.
+택스비는 소상공인의 납세협력비용을 기존 월 10만원 → 월 1만원으로 줄여줌으로써
+소상공인의 경제적 자립을 돕는데 기여하고 있습니다.
+회사소개: https://youtu.be/S38pxogM99M
+주요업무
+• 세금신고 플랫폼 개발 및 유지보수
+자격요건
+• Winform, ASP.NET 개발 가능자
+• MS-SQL 기반 개발 가능하신 분
+우대사항
+• 컴퓨터공학 및 관련 전공자 우대
+• Winform, ASP.NET, MS-SQL 기반 개발에 익숙하신 분
+혜택 및 복지
+• 최신형 장비지원(MacBook Pro, LG gram, 듀얼 모니터 등등)
+• 중소기업 청년소득세 감면
+• 청년내일채움공제 지원
+• 식비, 커피 제공
+• 명절 선물 및 상여금, 경조사비 지원
+• 연 1회 건강검진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Winform, ASP.NET, MSSQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9064,6 +9346,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9087,7 +9376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9113,6 +9402,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9416,26 +9708,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="2" width="35.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9443,1373 +9736,1532 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1200000</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1200000</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1200000</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>206</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="F22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="5">
         <v>1200000</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>208</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="5">
         <v>1200000</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>210</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="5">
         <v>1200000</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>212</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>214</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>216</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>218</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>189</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>221</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>223</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>225</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>227</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="2">
-        <v>33</v>
+      <c r="H35" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I35" s="2">
+        <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H35" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="G37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="B38" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="F38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="2">
-        <v>36</v>
+      <c r="H38" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" s="2">
+        <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>148</v>
+        <v>236</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="H39" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="I40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="2">
-        <v>39</v>
+      <c r="H41" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="2">
+        <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>160</v>
+        <v>241</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="H43" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>243</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="H44" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I44" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>246</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="5">
         <v>1200000</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="H45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I45" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="B47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1200000</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H46" s="2">
-        <v>45</v>
+      <c r="F47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I47" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>170</v>
+        <v>251</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="H48" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="H49" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I49" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="G50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>179</v>
+        <v>279</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="H51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I52" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H53" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H52" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>52</v>
       </c>
     </row>
